--- a/medicine/Handicap/Éducateur_technique_spécialisé/Éducateur_technique_spécialisé.xlsx
+++ b/medicine/Handicap/Éducateur_technique_spécialisé/Éducateur_technique_spécialisé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ducateur_technique_sp%C3%A9cialis%C3%A9</t>
+          <t>Éducateur_technique_spécialisé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un éducateur technique spécialisé (ETS) est un éducateur qui possède une double compétence : 
 Spécialiste de l’éducation et de l'insertion sociale et professionnelle ;
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ducateur_technique_sp%C3%A9cialis%C3%A9</t>
+          <t>Éducateur_technique_spécialisé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Le métier d'éducateur technique spécialisé (ETS)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le métier d'éducateur technique spécialisé, les conditions de certification et de formation sont définis en France par un référentiel professionnel[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le métier d'éducateur technique spécialisé, les conditions de certification et de formation sont définis en France par un référentiel professionnel. 
 À titre d'exemple, l’éducateur technique spécialisé peut être amené à intervenir auprès :
 De jeunes mineurs ou adultes en situation de handicap sensoriel, handicap moteur ou handicap psychique au sein d’un Institut médico-éducatif (IME) ou établissement et service d'accompagnement par le travail (ESAT)
 De mineurs, d'adultes ou de familles en situation ou en risque d'exclusion sociale au sein d’une maison d'enfants à caractère social (MECS), une entreprise d'insertion (EI).
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ducateur_technique_sp%C3%A9cialis%C3%A9</t>
+          <t>Éducateur_technique_spécialisé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,12 +570,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La formation professionnelle
-La formation au métier d'éducateur technique spécialisé dure trois ans. 
+          <t>La formation professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation au métier d'éducateur technique spécialisé dure trois ans. 
 Celle-ci se compose d'une formation théorique 1 200 heures et d’une formation pratique sous forme de stage de 1 960 heures (56 semaines).
 La formation théorique est définie par un référentiel de formation composé de quatre domaines de formation (DF). Les compétences requises pour exercer sont déclinées en quatre domaines de compétences dont la maîtrise est exigée pour une pratique efficace en tant qu'éducateur technique spécialisé.
-Certification
-Le référentiel de certification est composé de quatre domaines de certification. Chacun des domaines comporte une ou deux épreuves organisées par le recteur d'académie ou par l'établissement de formation. Ces épreuves comprennent :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éducateur_technique_spécialisé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ducateur_technique_sp%C3%A9cialis%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Contenu et organisation de la formation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Certification</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le référentiel de certification est composé de quatre domaines de certification. Chacun des domaines comporte une ou deux épreuves organisées par le recteur d'académie ou par l'établissement de formation. Ces épreuves comprennent :
 Domaine de certification 1 : Accompagnement social et éducatif spécialisé
 Étude de relation éducative (présentation écrite et soutenance orale)
 Mémoire de pratique professionnelle (présentation écrite et soutenance orale)
@@ -576,8 +630,43 @@
 Épreuve de contrôle de connaissances (écrit)
 Chaque domaine de certification doit être validé séparément. Pour valider chacun des domaines, le candidat doit obtenir une note moyenne d’au moins 10 sur 20 pour ce domaine
 Le jury établit la liste des candidats ayant validé les quatre domaines de certification du diplôme. Les lauréats obtiennent le diplôme d’État d’éducateur spécialisé. Dans les cas où le candidat n’a pas validé les quatre domaines de certification, le jury prend une décision de validation partielle du diplôme mentionnant les domaines certifiés.
-Accès à la formation
-Les épreuves d’admission et la formation ont lieu dans les écoles d'éducateur (IRTS). Les modalités de formation et d'organisation des examens pour le diplôme d'État d'éducateur technique spécialisé (DEETS) sont fixées par l'arrêté du 22 aout 2018 relatif au diplôme d’État d'éducateur technique spécialisé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éducateur_technique_spécialisé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ducateur_technique_sp%C3%A9cialis%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contenu et organisation de la formation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Accès à la formation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les épreuves d’admission et la formation ont lieu dans les écoles d'éducateur (IRTS). Les modalités de formation et d'organisation des examens pour le diplôme d'État d'éducateur technique spécialisé (DEETS) sont fixées par l'arrêté du 22 aout 2018 relatif au diplôme d’État d'éducateur technique spécialisé.
 Peuvent se présenter aux épreuves d'admission les candidats titulaires d'un diplôme, certificat ou titre professionnel ou technologique homologué ou enregistré au répertoire national des certifications professionnelles au moins au niveau 4. 
 L'admission en école se fait par l'intermédiaire du portail Parcoursup. L'accès à un oral de motivation varie selon les écoles. Certaines écoles admettent à l'oral tous les candidats ayant un dossier complet, d'autres font une sélection à partir du dossier Parcoursup avant de convoquer, le cas échéant, à l'oral. 
 L'entretien oral est destiné à apprécier l'aptitude et la motivation du candidat à l'exercice de la profession compte tenu des publics pris en charge et du contexte de l'intervention ainsi que son adhésion au projet pédagogique de l'établissement.
@@ -587,31 +676,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89ducateur_technique_sp%C3%A9cialis%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éducateur_technique_spécialisé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89ducateur_technique_sp%C3%A9cialis%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Représentativité professionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, on compte environ 5000 éducateurs techniques spécialisés, la population masculine est majoritaire.
 La profession est représentée depuis 1981 par une organisation spécifique : l’Association nationale des éducateurs techniques spécialisés (ANETS) association loi 1901. Cette association est entrée en sommeil depuis quelques années.
